--- a/tables/contingency.xlsx
+++ b/tables/contingency.xlsx
@@ -422,16 +422,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="D2" t="n">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="E2" t="n">
-        <v>377</v>
+        <v>453</v>
       </c>
       <c r="F2" t="n">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -446,20 +446,20 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>353</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>636</v>
+        <v>436</v>
       </c>
       <c r="J3" t="n">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4">
@@ -474,16 +474,16 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.426</v>
+        <v>0.502</v>
       </c>
       <c r="H4" t="n">
-        <v>0.183</v>
+        <v>0.278</v>
       </c>
       <c r="I4" t="n">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="J4" t="n">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/tables/contingency.xlsx
+++ b/tables/contingency.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_cases_exp</t>
   </si>
   <si>
@@ -45,6 +51,12 @@
   </si>
   <si>
     <t xml:space="preserve">2x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+RR+NNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+R+Z</t>
   </si>
   <si>
     <t xml:space="preserve">2x2_sum</t>
@@ -413,77 +425,101 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>162</v>
-      </c>
-      <c r="D2" t="n">
-        <v>420</v>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>453</v>
+        <v>353</v>
       </c>
       <c r="F2" t="n">
-        <v>130</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
+        <v>489</v>
+      </c>
+      <c r="G2" t="n">
+        <v>220</v>
+      </c>
+      <c r="H2" t="n">
+        <v>38</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="n">
-        <v>128</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>41</v>
+      </c>
+      <c r="F3" t="n">
+        <v>413</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="n">
-        <v>436</v>
-      </c>
-      <c r="J3" t="n">
-        <v>486</v>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="n">
+        <v>301</v>
+      </c>
+      <c r="L3" t="n">
+        <v>457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="G4" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.278</v>
-      </c>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="I4" t="n">
-        <v>322</v>
+        <v>0.287</v>
       </c>
       <c r="J4" t="n">
-        <v>92</v>
+        <v>0.594</v>
+      </c>
+      <c r="K4" t="n">
+        <v>316</v>
+      </c>
+      <c r="L4" t="n">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/tables/contingency.xlsx
+++ b/tables/contingency.xlsx
@@ -446,16 +446,16 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="F2" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="G2" t="n">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -476,20 +476,20 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="F3" t="n">
-        <v>413</v>
+        <v>296</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>457</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4">
@@ -510,16 +510,16 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>0.287</v>
+        <v>0.34</v>
       </c>
       <c r="J4" t="n">
-        <v>0.594</v>
+        <v>0.486</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="L4" t="n">
-        <v>264</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/tables/contingency.xlsx
+++ b/tables/contingency.xlsx
@@ -446,16 +446,16 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="F2" t="n">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="G2" t="n">
-        <v>335</v>
+        <v>475</v>
       </c>
       <c r="H2" t="n">
-        <v>337</v>
+        <v>257</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -476,20 +476,20 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="F3" t="n">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="n">
-        <v>500</v>
+        <v>223</v>
       </c>
       <c r="L3" t="n">
-        <v>683</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
@@ -510,16 +510,16 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>0.34</v>
+        <v>0.587</v>
       </c>
       <c r="J4" t="n">
-        <v>0.486</v>
+        <v>0.264</v>
       </c>
       <c r="K4" t="n">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="L4" t="n">
-        <v>346</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
